--- a/data/복지관현황최종(종합,장애인).xlsx
+++ b/data/복지관현황최종(종합,장애인).xlsx
@@ -300,9 +300,6 @@
     <t>부산광역시 서구 까치고개로229번길40</t>
   </si>
   <si>
-    <t>부산진구노인?장애인 복지관</t>
-  </si>
-  <si>
     <t>부산광역시 북구 덕천로74</t>
   </si>
   <si>
@@ -501,6 +498,10 @@
   </si>
   <si>
     <t>경도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산진구노인,장애인 복지관</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1086,15 +1087,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="39.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -1103,10 +1107,10 @@
         <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -1117,7 +1121,7 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2">
         <v>35.105785900000001</v>
@@ -1128,7 +1132,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1145,7 +1149,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1162,13 +1166,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5">
         <v>35.1456521</v>
@@ -1179,7 +1183,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1236,7 +1240,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9">
         <v>35.0857071</v>
@@ -1253,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10">
         <v>35.072225600000003</v>
@@ -1270,7 +1274,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>35.075973400000002</v>
@@ -1321,7 +1325,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14">
         <v>35.162332999999997</v>
@@ -1389,7 +1393,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18">
         <v>35.127282399999999</v>
@@ -1406,7 +1410,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19">
         <v>35.118471599999999</v>
@@ -1457,7 +1461,7 @@
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22">
         <v>35.258888499999998</v>
@@ -1474,7 +1478,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>35.2090119</v>
@@ -1491,7 +1495,7 @@
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>35.252485100000001</v>
@@ -1525,7 +1529,7 @@
         <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26">
         <v>35.267702900000003</v>
@@ -1559,7 +1563,7 @@
         <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28">
         <v>35.226807600000001</v>
@@ -1675,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -1695,7 +1699,7 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36">
         <v>35.198239299999997</v>
@@ -1706,13 +1710,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
         <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37">
         <v>35.104422300000003</v>
@@ -1723,7 +1727,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
         <v>66</v>
@@ -1740,13 +1744,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39">
         <v>35.062226000000003</v>
@@ -1757,7 +1761,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -1774,7 +1778,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
         <v>65</v>
@@ -1797,7 +1801,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D42">
         <v>35.214528000000001</v>
@@ -1814,7 +1818,7 @@
         <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43">
         <v>35.294255200000002</v>
@@ -1825,7 +1829,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
         <v>70</v>
@@ -1842,13 +1846,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45">
         <v>35.1197193</v>
@@ -1859,13 +1863,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46">
         <v>35.1729226</v>
@@ -1876,13 +1880,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47">
         <v>35.188222199999998</v>
@@ -1893,13 +1897,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48">
         <v>35.170956199999999</v>
@@ -1910,13 +1914,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49">
         <v>35.159347699999998</v>
@@ -1933,7 +1937,7 @@
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50">
         <v>35.184315400000003</v>
@@ -1950,7 +1954,7 @@
         <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D51">
         <v>35.183370799999999</v>
@@ -1967,7 +1971,7 @@
         <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52">
         <v>35.1382349</v>
@@ -1984,7 +1988,7 @@
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D53">
         <v>35.155571199999997</v>
@@ -2001,7 +2005,7 @@
         <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54">
         <v>35.235976299999997</v>
@@ -2012,13 +2016,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55">
         <v>35.110789500000003</v>
@@ -2029,13 +2033,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56">
         <v>35.130909199999998</v>
@@ -2049,10 +2053,10 @@
         <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57">
         <v>35.075335199999998</v>
@@ -2065,11 +2069,11 @@
       <c r="A58" t="s">
         <v>36</v>
       </c>
-      <c r="B58" t="s">
-        <v>93</v>
+      <c r="B58" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58">
         <v>35.164048200000003</v>
@@ -2083,10 +2087,10 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D59">
         <v>35.196977099999998</v>
@@ -2100,7 +2104,7 @@
         <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
         <v>76</v>
@@ -2117,10 +2121,10 @@
         <v>89</v>
       </c>
       <c r="B61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" t="s">
         <v>142</v>
-      </c>
-      <c r="C61" t="s">
-        <v>143</v>
       </c>
       <c r="D61">
         <v>35.141341099999998</v>
@@ -2134,10 +2138,10 @@
         <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D62">
         <v>35.195044799999998</v>
@@ -2151,10 +2155,10 @@
         <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63">
         <v>35.244277500000003</v>
@@ -2168,7 +2172,7 @@
         <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
         <v>45</v>
@@ -2185,10 +2189,10 @@
         <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D65">
         <v>35.210995199999999</v>
@@ -2199,13 +2203,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D66">
         <v>35.085445700000001</v>
@@ -2222,7 +2226,7 @@
         <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D67">
         <v>35.219599600000002</v>
@@ -2233,13 +2237,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68">
         <v>35.1906198</v>
@@ -2250,13 +2254,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D69">
         <v>35.159643299999999</v>
@@ -2273,7 +2277,7 @@
         <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70">
         <v>35.184893799999998</v>
@@ -2290,7 +2294,7 @@
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D71">
         <v>35.336440600000003</v>

--- a/data/복지관현황최종(종합,장애인).xlsx
+++ b/data/복지관현황최종(종합,장애인).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
   <si>
     <t>부산광역시 서구 망양로193번길104</t>
   </si>
@@ -87,12 +87,6 @@
     <t>서구사회복지관</t>
   </si>
   <si>
-    <t>부산사회복지관</t>
-  </si>
-  <si>
-    <t>동구사회복지관</t>
-  </si>
-  <si>
     <t>상리사회복지관</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>부산광역시 영도구 산정길138</t>
   </si>
   <si>
-    <t>부산광역시 동구 수정공원로15</t>
-  </si>
-  <si>
     <t>홀트수영사회복지관</t>
   </si>
   <si>
@@ -369,9 +360,6 @@
     <t>부산광역시 금정구 서부로77(서동)</t>
   </si>
   <si>
-    <t>부산광역시 수영구 금련로43번길54</t>
-  </si>
-  <si>
     <t>부산광역시 수영구 장대골로20-5</t>
   </si>
   <si>
@@ -412,9 +400,6 @@
   </si>
   <si>
     <t>서구장애인복지관</t>
-  </si>
-  <si>
-    <t>부산광역시 동구 안창로57</t>
   </si>
   <si>
     <t>부산광역시 중구 망양로309</t>
@@ -502,6 +487,30 @@
   </si>
   <si>
     <t>부산진구노인,장애인 복지관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 동구 수정공원로15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 동구 안창로57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구종합사회복지관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구부산종합사회복지관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 수영구 금련로43번길54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영구부산종합사회복지관</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1087,41 +1096,42 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="39.59765625" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>35.105785900000001</v>
@@ -1132,7 +1142,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1149,13 +1159,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>35.101442900000002</v>
@@ -1166,13 +1176,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D5">
         <v>35.1456521</v>
@@ -1183,13 +1193,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D6">
         <v>35.128720000000001</v>
@@ -1200,13 +1210,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>35.081221900000003</v>
@@ -1217,13 +1227,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>35.083245499999997</v>
@@ -1234,13 +1244,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D9">
         <v>35.0857071</v>
@@ -1251,13 +1261,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10">
         <v>35.072225600000003</v>
@@ -1268,13 +1278,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11">
         <v>35.075973400000002</v>
@@ -1285,13 +1295,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>35.142603200000003</v>
@@ -1302,13 +1312,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>35.163268299999999</v>
@@ -1319,13 +1329,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14">
         <v>35.162332999999997</v>
@@ -1336,13 +1346,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <v>35.153643600000002</v>
@@ -1353,13 +1363,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>35.198625100000001</v>
@@ -1370,13 +1380,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D17">
         <v>35.211056399999997</v>
@@ -1387,13 +1397,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D18">
         <v>35.127282399999999</v>
@@ -1404,13 +1414,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D19">
         <v>35.118471599999999</v>
@@ -1421,13 +1431,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>35.124564200000002</v>
@@ -1438,10 +1448,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1455,13 +1465,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>35.258888499999998</v>
@@ -1472,13 +1482,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>35.2090119</v>
@@ -1489,13 +1499,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
       </c>
       <c r="D24">
         <v>35.252485100000001</v>
@@ -1506,13 +1516,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>35.260725999999998</v>
@@ -1523,13 +1533,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D26">
         <v>35.267702900000003</v>
@@ -1540,13 +1550,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>35.217571</v>
@@ -1557,13 +1567,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D28">
         <v>35.226807600000001</v>
@@ -1574,10 +1584,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -1594,7 +1604,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1611,7 +1621,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1628,7 +1638,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1645,7 +1655,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1662,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1679,7 +1689,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -1696,10 +1706,10 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D36">
         <v>35.198239299999997</v>
@@ -1710,13 +1720,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D37">
         <v>35.104422300000003</v>
@@ -1727,10 +1737,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -1744,13 +1754,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D39">
         <v>35.062226000000003</v>
@@ -1761,7 +1771,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -1778,10 +1788,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1795,13 +1805,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D42">
         <v>35.214528000000001</v>
@@ -1812,13 +1822,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D43">
         <v>35.294255200000002</v>
@@ -1829,10 +1839,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -1846,13 +1856,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D45">
         <v>35.1197193</v>
@@ -1863,13 +1873,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D46">
         <v>35.1729226</v>
@@ -1880,13 +1890,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47">
         <v>35.188222199999998</v>
@@ -1897,13 +1907,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" t="s">
-        <v>116</v>
+        <v>133</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D48">
         <v>35.170956199999999</v>
@@ -1914,13 +1924,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D49">
         <v>35.159347699999998</v>
@@ -1931,13 +1941,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D50">
         <v>35.184315400000003</v>
@@ -1948,13 +1958,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D51">
         <v>35.183370799999999</v>
@@ -1965,13 +1975,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D52">
         <v>35.1382349</v>
@@ -1982,13 +1992,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D53">
         <v>35.155571199999997</v>
@@ -2002,10 +2012,10 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D54">
         <v>35.235976299999997</v>
@@ -2016,13 +2026,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D55">
         <v>35.110789500000003</v>
@@ -2033,13 +2043,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D56">
         <v>35.130909199999998</v>
@@ -2050,13 +2060,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D57">
         <v>35.075335199999998</v>
@@ -2067,13 +2077,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D58">
         <v>35.164048200000003</v>
@@ -2084,13 +2094,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D59">
         <v>35.196977099999998</v>
@@ -2101,13 +2111,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D60">
         <v>35.129244200000002</v>
@@ -2118,13 +2128,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D61">
         <v>35.141341099999998</v>
@@ -2135,13 +2145,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D62">
         <v>35.195044799999998</v>
@@ -2152,13 +2162,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D63">
         <v>35.244277500000003</v>
@@ -2169,13 +2179,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D64">
         <v>35.2671207</v>
@@ -2189,10 +2199,10 @@
         <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D65">
         <v>35.210995199999999</v>
@@ -2203,13 +2213,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D66">
         <v>35.085445700000001</v>
@@ -2220,13 +2230,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D67">
         <v>35.219599600000002</v>
@@ -2237,13 +2247,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D68">
         <v>35.1906198</v>
@@ -2254,13 +2264,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D69">
         <v>35.159643299999999</v>
@@ -2271,13 +2281,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D70">
         <v>35.184893799999998</v>
@@ -2291,10 +2301,10 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D71">
         <v>35.336440600000003</v>
